--- a/設計書/画面レイアウト/共通レイアウト.xlsx
+++ b/設計書/画面レイアウト/共通レイアウト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB762E-0B26-4E14-8B07-C33742865627}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C853A1C-EBD1-4868-8AD0-F4DCEE1FED87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -183,28 +183,6 @@
     <t>設定先</t>
     <rPh sb="0" eb="3">
       <t>セッテイサキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>G0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019/9/5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>川口</t>
-    <rPh sb="0" eb="2">
-      <t>カワグチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -905,15 +883,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>35775</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152042</xdr:rowOff>
+      <xdr:colOff>146419</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>72981</xdr:colOff>
+      <xdr:colOff>183625</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>117697</xdr:rowOff>
+      <xdr:rowOff>125469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -955,8 +933,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4042536" y="4865352"/>
-          <a:ext cx="609600" cy="609600"/>
+          <a:off x="4187328" y="5437049"/>
+          <a:ext cx="614479" cy="615087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -967,16 +945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>156028</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>6456</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220785</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>193233</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257991</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>132479</xdr:rowOff>
+      <xdr:rowOff>127299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1022,8 +1000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="725338" y="4867490"/>
-          <a:ext cx="606516" cy="607749"/>
+          <a:off x="1375330" y="5432450"/>
+          <a:ext cx="614479" cy="621516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1034,16 +1012,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80287</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57714</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>124079</xdr:rowOff>
+      <xdr:rowOff>138880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120577</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98004</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>80431</xdr:rowOff>
+      <xdr:rowOff>95232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1090,8 +1068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1788218" y="4824539"/>
-          <a:ext cx="609600" cy="598652"/>
+          <a:off x="2366805" y="5411304"/>
+          <a:ext cx="617563" cy="610595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,16 +1080,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>56987</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>154679</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130256</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>97276</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170545</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>123804</xdr:rowOff>
+      <xdr:rowOff>136015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1154,8 +1132,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2906346" y="4803205"/>
-          <a:ext cx="610161" cy="604126"/>
+          <a:off x="3219775" y="5271313"/>
+          <a:ext cx="602020" cy="604125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,6 +1233,68 @@
         <a:xfrm>
           <a:off x="370417" y="920750"/>
           <a:ext cx="1343236" cy="627063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153939</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201808</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F95F39-2A1C-4C27-AE1B-C85B97C8ACFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="45313" y1="17188" x2="34375" y2="82813"/>
+                      <a14:foregroundMark x1="14063" y1="48438" x2="29688" y2="48438"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="442575" y="5445606"/>
+          <a:ext cx="625142" cy="624032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="52" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -1725,37 +1765,27 @@
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
-      <c r="I4" s="41" t="s">
-        <v>21</v>
-      </c>
+      <c r="I4" s="41"/>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
       <c r="O4" s="42"/>
-      <c r="P4" s="45" t="s">
-        <v>22</v>
-      </c>
+      <c r="P4" s="45"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="42"/>
-      <c r="S4" s="47" t="s">
-        <v>21</v>
-      </c>
+      <c r="S4" s="47"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
       <c r="W4" s="48"/>
       <c r="X4" s="48"/>
       <c r="Y4" s="49"/>
-      <c r="Z4" s="45" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z4" s="45"/>
       <c r="AA4" s="41"/>
       <c r="AB4" s="42"/>
-      <c r="AC4" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="AC4" s="45"/>
       <c r="AD4" s="41"/>
       <c r="AE4" s="42"/>
       <c r="AF4" s="28" t="s">
@@ -4011,6 +4041,7 @@
     <mergeCell ref="S4:Y5"/>
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="Y43:AK43"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="I45:L45"/>
@@ -4126,7 +4157,6 @@
     <mergeCell ref="V45:X45"/>
     <mergeCell ref="S44:U44"/>
     <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y43:AK43"/>
     <mergeCell ref="Y46:AK46"/>
     <mergeCell ref="Y51:AK51"/>
     <mergeCell ref="Y50:AK50"/>

--- a/設計書/画面レイアウト/共通レイアウト.xlsx
+++ b/設計書/画面レイアウト/共通レイアウト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C853A1C-EBD1-4868-8AD0-F4DCEE1FED87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1012877-7BDA-4590-8D50-631759CD100A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -183,6 +183,303 @@
     <t>設定先</t>
     <rPh sb="0" eb="3">
       <t>セッテイサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在のポイントを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホームアイコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板アイコン</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きっかけガチャアイコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャットアイコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページアイコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトし、ログイン画面へ遷移</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押下でホーム画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押下で掲示板画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押下できっかけガチャ画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押下でチャット選択画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押下でマイページ画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押下するとホーム画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フッターのアイコンで各画面へ遷移することができる</t>
+    <rPh sb="10" eb="13">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④を押下</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→ホーム画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤を押下</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→掲示板画面へ遷移する</t>
+    <rPh sb="1" eb="6">
+      <t>ケイジバンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥を押下</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→きっかけガチャ画面へ遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑦を押下</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→チャット選択画面へ遷移する</t>
+    <rPh sb="5" eb="9">
+      <t>センタクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑧を押下</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→マイページ画面へ遷移する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトのリンク③を押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→セッションを切り、ログイン画面へ遷移する</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/9/6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>川口</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -406,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +850,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -883,15 +1189,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>146419</xdr:colOff>
+      <xdr:colOff>152644</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1064</xdr:rowOff>
+      <xdr:rowOff>50868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>183625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>125469</xdr:rowOff>
+      <xdr:colOff>189850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>13410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -933,8 +1239,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4187328" y="5437049"/>
-          <a:ext cx="614479" cy="615087"/>
+          <a:off x="4161860" y="5417241"/>
+          <a:ext cx="609951" cy="609993"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,15 +1252,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>220785</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160026</xdr:rowOff>
+      <xdr:colOff>258138</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>41742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257991</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127299</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8971</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1000,8 +1306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1375330" y="5432450"/>
-          <a:ext cx="614479" cy="621516"/>
+          <a:off x="1403628" y="5408115"/>
+          <a:ext cx="609951" cy="614724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,15 +1451,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>84703</xdr:colOff>
+      <xdr:colOff>152052</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>153510</xdr:rowOff>
+      <xdr:rowOff>143889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180121</xdr:colOff>
+      <xdr:colOff>247470</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>55823</xdr:rowOff>
+      <xdr:rowOff>46202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1182,8 +1488,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1830953" y="1026635"/>
-          <a:ext cx="386460" cy="378563"/>
+          <a:off x="1883870" y="1000177"/>
+          <a:ext cx="384055" cy="392995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,6 +1607,1600 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>48106</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255245</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D994ADB5-471A-4F9D-B5D6-9191B7013875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="334479" y="890245"/>
+          <a:ext cx="1352629" cy="668392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182802</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6A7E98-E461-4EAB-A724-5310DB589244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1824068" y="933824"/>
+          <a:ext cx="1795205" cy="491814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>43579</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279510</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA5E438-610E-480F-BB4B-22E82A24CF5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4052795" y="902696"/>
+          <a:ext cx="808676" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>124510</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230343</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>13636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58041FB5-B793-40F3-B6F1-B0F9058730BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="410883" y="5378824"/>
+          <a:ext cx="678578" cy="648636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31127</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5056F561-9C0E-47E9-AAC5-E98841DE23D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1357157" y="5385049"/>
+          <a:ext cx="678578" cy="648636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270684</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90145</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452A7E90-7D88-4D14-B13B-9B6A5DD6138F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2275292" y="5394263"/>
+          <a:ext cx="678578" cy="648636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74457</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180290</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C3F437-A2FD-44AF-B085-2D22DC220E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3224555" y="5384800"/>
+          <a:ext cx="678578" cy="648636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114798</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220631</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3ED14C-6605-4CFA-A4B4-9837E7F0077B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124014" y="5387788"/>
+          <a:ext cx="678578" cy="648636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174314</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68481</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA03B8A-72E4-4DFA-B957-68C7DF257BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="751587" y="4747643"/>
+          <a:ext cx="471439" cy="541618"/>
+          <a:chOff x="1048206" y="936113"/>
+          <a:chExt cx="355300" cy="132122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB263F1C-0DAD-442B-B293-D1D9B4AA0FEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1258041" y="936113"/>
+            <a:ext cx="145465" cy="127718"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="直線コネクタ 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300216BE-E518-43A6-A521-4CA2649FF0A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="24" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1048206" y="999972"/>
+            <a:ext cx="209835" cy="68263"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49804</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230344</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24901</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0F4DB3-CBA2-4933-BD89-DF50AE7E46A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2647531" y="4772544"/>
+          <a:ext cx="469177" cy="541618"/>
+          <a:chOff x="1048206" y="936113"/>
+          <a:chExt cx="355300" cy="132122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="テキスト ボックス 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C984049D-8BA8-4612-8223-54C21BD32E27}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1258041" y="936113"/>
+            <a:ext cx="145465" cy="127718"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑥</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="直線コネクタ 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8069ED-6501-4555-81C9-44F7F8D49E5D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="27" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1048206" y="999972"/>
+            <a:ext cx="209835" cy="68263"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96371</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276911</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21665</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE13F40-9CFA-4E37-B3EF-F4556F2E8321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3560007" y="4769308"/>
+          <a:ext cx="469177" cy="541618"/>
+          <a:chOff x="1048206" y="936113"/>
+          <a:chExt cx="355300" cy="132122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0706EF64-2721-4805-94A1-8B5E800F779E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1258041" y="936113"/>
+            <a:ext cx="145465" cy="127718"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑦</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="直線コネクタ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17E710A-98D3-4129-9C0B-C09440CB0BDA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="30" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1048206" y="999972"/>
+            <a:ext cx="209835" cy="68263"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74457</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254996</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12202</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF574FC6-35F9-4198-8AF7-4B649B43691D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4404002" y="4759845"/>
+          <a:ext cx="469176" cy="541618"/>
+          <a:chOff x="1048206" y="936113"/>
+          <a:chExt cx="355300" cy="132122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="テキスト ボックス 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB39A709-C5E8-4744-B203-CD15A9124DE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1258041" y="936113"/>
+            <a:ext cx="145465" cy="127718"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑧</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="直線コネクタ 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8DE876-0313-4629-BA64-C394F23BDA5D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="33" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1048206" y="999972"/>
+            <a:ext cx="209835" cy="68263"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282886</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177053</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2738</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="グループ化 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F35864-DE2C-4AC9-A3A5-0121BA3EDBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1726068" y="4750381"/>
+          <a:ext cx="471440" cy="541618"/>
+          <a:chOff x="1048206" y="936113"/>
+          <a:chExt cx="355300" cy="132122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="テキスト ボックス 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC57A6C8-71CA-4237-80DE-AD10AF43C073}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1258041" y="936113"/>
+            <a:ext cx="145465" cy="127718"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑤</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="直線コネクタ 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E5ACD5-7595-4183-973E-E2E1C3688775}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="36" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1048206" y="999972"/>
+            <a:ext cx="209835" cy="68263"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112062</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>62255</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="グループ化 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D347CD17-5D8E-43A3-8D85-5E87562351F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipV="1">
+          <a:off x="2709789" y="1432567"/>
+          <a:ext cx="527466" cy="513605"/>
+          <a:chOff x="789467" y="1284146"/>
+          <a:chExt cx="226000" cy="276268"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="テキスト ボックス 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935744EB-A931-43E2-B22A-2B7C34580FBB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="928345" y="1284146"/>
+            <a:ext cx="87122" cy="237131"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="直線コネクタ 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F25A371-8AD0-4B00-9410-DCC92672ED28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="39" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="789467" y="1402711"/>
+            <a:ext cx="138878" cy="157703"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161543</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>258926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>36386</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619E2331-1022-40A3-AFAC-F791894F7E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4491088" y="1186663"/>
+          <a:ext cx="386020" cy="328984"/>
+          <a:chOff x="870342" y="849602"/>
+          <a:chExt cx="155196" cy="503393"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="テキスト ボックス 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BE9363-3BD0-429C-A3B3-C517DB07E94D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="938416" y="1115863"/>
+            <a:ext cx="87122" cy="237132"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="直線コネクタ 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F2D87F-F490-4945-9C56-0C340FA394FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="17" idx="2"/>
+            <a:endCxn id="42" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="870342" y="849602"/>
+            <a:ext cx="68074" cy="384826"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>151677</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192990</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68480</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="グループ化 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B617C2E-A197-46EE-BD5F-97FFE2ED1128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1017586" y="1556231"/>
+          <a:ext cx="618586" cy="467760"/>
+          <a:chOff x="785633" y="1205544"/>
+          <a:chExt cx="229834" cy="315733"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="テキスト ボックス 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E372F77E-C934-4C72-AB2D-BF396D6034E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="928345" y="1284146"/>
+            <a:ext cx="87122" cy="237131"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="直線コネクタ 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF3B243-6F0C-499D-9DE0-994F6516C709}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="13" idx="2"/>
+            <a:endCxn id="45" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="785633" y="1205544"/>
+            <a:ext cx="142712" cy="197168"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1605,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AC4" sqref="AC4:AE5"/>
     </sheetView>
   </sheetViews>
@@ -1765,27 +3665,37 @@
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="I4" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
       <c r="O4" s="42"/>
-      <c r="P4" s="45"/>
+      <c r="P4" s="45" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="42"/>
-      <c r="S4" s="47"/>
+      <c r="S4" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
       <c r="W4" s="48"/>
       <c r="X4" s="48"/>
       <c r="Y4" s="49"/>
-      <c r="Z4" s="45"/>
+      <c r="Z4" s="45" t="s">
+        <v>55</v>
+      </c>
       <c r="AA4" s="41"/>
       <c r="AB4" s="42"/>
-      <c r="AC4" s="45"/>
+      <c r="AC4" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="AD4" s="41"/>
       <c r="AE4" s="42"/>
       <c r="AF4" s="28" t="s">
@@ -1980,7 +3890,9 @@
       <c r="T9" s="9">
         <v>1</v>
       </c>
-      <c r="U9" s="9"/>
+      <c r="U9" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -2056,10 +3968,10 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="9">
-        <v>2</v>
-      </c>
-      <c r="U11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -2098,7 +4010,9 @@
       <c r="R12" s="10"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="U12" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -2136,9 +4050,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="9">
-        <v>3</v>
-      </c>
+      <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -2178,7 +4090,9 @@
       <c r="R14" s="10"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+      <c r="U14" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
@@ -2216,6 +4130,9 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
       <c r="S15" s="9"/>
+      <c r="U15" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -2291,7 +4208,9 @@
       <c r="R17" s="10"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="U17" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -2330,7 +4249,9 @@
       <c r="R18" s="10"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="U18" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -2408,7 +4329,9 @@
       <c r="R20" s="10"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="U20" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -2447,7 +4370,9 @@
       <c r="R21" s="10"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+      <c r="U21" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -2525,7 +4450,9 @@
       <c r="R23" s="10"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
+      <c r="U23" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
@@ -2564,7 +4491,9 @@
       <c r="R24" s="10"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
+      <c r="U24" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
@@ -2640,8 +4569,12 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
+      <c r="T26" s="9">
+        <v>2</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -2719,7 +4652,9 @@
       <c r="R28" s="10"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
+      <c r="U28" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3307,13 +5242,17 @@
         <v>1</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="25"/>
+      <c r="C43" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
       <c r="L43" s="27"/>
@@ -3339,19 +5278,21 @@
       </c>
       <c r="W43" s="26"/>
       <c r="X43" s="27"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="27"/>
+      <c r="Y43" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="59"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -3364,13 +5305,17 @@
         <v>2</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="25"/>
+      <c r="C44" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
       <c r="L44" s="27"/>
@@ -3396,19 +5341,21 @@
       </c>
       <c r="W44" s="26"/>
       <c r="X44" s="27"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="27"/>
+      <c r="Y44" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="58"/>
+      <c r="AK44" s="59"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -3421,13 +5368,17 @@
         <v>3</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="25"/>
+      <c r="C45" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" s="27"/>
@@ -3453,19 +5404,21 @@
       </c>
       <c r="W45" s="26"/>
       <c r="X45" s="27"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="27"/>
+      <c r="Y45" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="59"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -3478,13 +5431,17 @@
         <v>4</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="25"/>
+      <c r="C46" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
       <c r="L46" s="27"/>
@@ -3510,19 +5467,21 @@
       </c>
       <c r="W46" s="26"/>
       <c r="X46" s="27"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="27"/>
+      <c r="Y46" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="58"/>
+      <c r="AK46" s="59"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -3535,13 +5494,17 @@
         <v>5</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="25"/>
+      <c r="C47" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
       <c r="L47" s="27"/>
@@ -3567,19 +5530,21 @@
       </c>
       <c r="W47" s="26"/>
       <c r="X47" s="27"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="27"/>
+      <c r="Y47" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="58"/>
+      <c r="AK47" s="59"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -3592,13 +5557,17 @@
         <v>6</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="25"/>
+      <c r="C48" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="J48" s="26"/>
       <c r="K48" s="26"/>
       <c r="L48" s="27"/>
@@ -3622,19 +5591,21 @@
       <c r="V48" s="25"/>
       <c r="W48" s="26"/>
       <c r="X48" s="27"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="27"/>
+      <c r="Y48" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="58"/>
+      <c r="AJ48" s="58"/>
+      <c r="AK48" s="59"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -3647,16 +5618,20 @@
         <v>7</v>
       </c>
       <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
+      <c r="C49" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
+      <c r="I49" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
       <c r="M49" s="38" t="s">
         <v>16</v>
       </c>
@@ -3679,19 +5654,21 @@
       </c>
       <c r="W49" s="26"/>
       <c r="X49" s="27"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="27"/>
+      <c r="Y49" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="58"/>
+      <c r="AJ49" s="58"/>
+      <c r="AK49" s="59"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -3704,16 +5681,20 @@
         <v>8</v>
       </c>
       <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="C50" s="38" t="s">
+        <v>32</v>
+      </c>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
+      <c r="I50" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
       <c r="M50" s="38" t="s">
         <v>16</v>
       </c>
@@ -3736,19 +5717,21 @@
       </c>
       <c r="W50" s="26"/>
       <c r="X50" s="27"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="27"/>
+      <c r="Y50" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="58"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="59"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
